--- a/data/PAPS_col_definition.xlsx
+++ b/data/PAPS_col_definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ylee19067/Library/CloudStorage/Dropbox/working/PAPS_2023/report/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A14E144-4BB0-2246-90E1-8C62EF6EF4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A0FCB-77D6-EE49-92A4-22D2B956FAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18020" yWindow="8260" windowWidth="29460" windowHeight="18140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>SHL_CD_NM</t>
   </si>
@@ -60,289 +60,310 @@
     <t>CPM_SAI_EVL_SCR</t>
   </si>
   <si>
+    <t>BKRCH_NMVL</t>
+  </si>
+  <si>
+    <t>GNRLZ_FLX_NMVL</t>
+  </si>
+  <si>
+    <t>FLX_EVL_SCR</t>
+  </si>
+  <si>
+    <t>PSP_NTS</t>
+  </si>
+  <si>
+    <t>CLUP_NTS</t>
+  </si>
+  <si>
+    <t>GRIP_NMVL</t>
+  </si>
+  <si>
+    <t>MUSL_SAI_EVL_SCR</t>
+  </si>
+  <si>
+    <t>R50M_REC_HR</t>
+  </si>
+  <si>
+    <t>SLJ_NMVL</t>
+  </si>
+  <si>
+    <t>RFLX_EVL_SCR</t>
+  </si>
+  <si>
+    <t>BMI_IDEX</t>
+  </si>
+  <si>
+    <t>BDFAT_EVL_SCR</t>
+  </si>
+  <si>
+    <t>학교명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕복오래달리기(심폐지구력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래달리기걷기(심폐지구력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝검사(심폐지구력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉아윗몸앞으로굽히기(유연성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합유연성검사(유연성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔굽혀펴기(근력근지구력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윗몸말아올리기(근력근지구력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악력(근력근지구력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강체력_점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강체력_등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심폐지구력_점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심폐지구력_등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연성_점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연성_등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근력근지구력_점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근력근지구력_등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50m달리기(순발력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리멀리뛰기(순발력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순발력_점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순발력_등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체질량지수(비만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비만_점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비만_등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHLR_NTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var_ko_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕복오래달리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오래달리기걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텝검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉아윗몸앞으로굽히기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합유연성검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔굽혀펴기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윗몸말아올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50m달리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자리멀리뛰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체질량지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_1_item</t>
+  </si>
+  <si>
+    <t>선택종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_1_mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력요인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCH_GRD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교_학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_1_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CPM_SAI_EVL_CLA_CD</t>
-  </si>
-  <si>
-    <t>BKRCH_NMVL</t>
-  </si>
-  <si>
-    <t>GNRLZ_FLX_NMVL</t>
-  </si>
-  <si>
-    <t>FLX_EVL_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FLX_EVL_CLA_CD</t>
-  </si>
-  <si>
-    <t>PSP_NTS</t>
-  </si>
-  <si>
-    <t>CLUP_NTS</t>
-  </si>
-  <si>
-    <t>GRIP_NMVL</t>
-  </si>
-  <si>
-    <t>MUSL_SAI_EVL_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MUSL_SAI_EVL_CLA_CD</t>
-  </si>
-  <si>
-    <t>R50M_REC_HR</t>
-  </si>
-  <si>
-    <t>SLJ_NMVL</t>
-  </si>
-  <si>
-    <t>RFLX_EVL_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RFLX_EVL_CLA_CD</t>
-  </si>
-  <si>
-    <t>BMI_IDEX</t>
-  </si>
-  <si>
-    <t>BDFAT_EVL_SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BDFAT_CLA_SCR_NM</t>
-  </si>
-  <si>
-    <t>학교명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>년도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕복오래달리기(심폐지구력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오래달리기걷기(심폐지구력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텝검사(심폐지구력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉아윗몸앞으로굽히기(유연성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합유연성검사(유연성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔굽혀펴기(근력근지구력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윗몸말아올리기(근력근지구력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악력(근력근지구력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강체력_점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강체력_등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심폐지구력_점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심폐지구력_등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유연성_점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유연성_등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근력근지구력_점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근력근지구력_등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50m달리기(순발력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제자리멀리뛰기(순발력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순발력_점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순발력_등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체질량지수(비만)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비만_점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비만_등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHLR_NTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_ko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>var_ko_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕복오래달리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오래달리기걷기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텝검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉아윗몸앞으로굽히기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합유연성검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔굽혀펴기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윗몸말아올리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50m달리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제자리멀리뛰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체질량지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select_1_item</t>
-  </si>
-  <si>
-    <t>선택종목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select_1_mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>school_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력요인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCH_GRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교_학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select_1_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -724,16 +745,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -747,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -761,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -775,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -803,10 +824,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -817,10 +838,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -831,10 +852,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -845,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -856,13 +877,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -873,10 +894,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -887,10 +908,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -901,10 +922,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -912,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -926,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -940,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -954,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -968,13 +989,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -982,13 +1003,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -996,13 +1017,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1010,13 +1031,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1024,13 +1045,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1038,13 +1059,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1052,13 +1073,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1066,13 +1087,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1080,13 +1101,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1094,13 +1115,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1108,13 +1129,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1122,13 +1143,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1136,13 +1157,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1150,13 +1171,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1164,13 +1185,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1178,13 +1199,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1192,13 +1213,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1206,13 +1227,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1220,13 +1241,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1234,13 +1255,41 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
